--- a/pyloghub/sample_data/transportAddresses.xlsx
+++ b/pyloghub/sample_data/transportAddresses.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\log-hub-python\pyloghub\sample_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{022B40D6-576C-4922-8DF9-A457BA3AFC17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2D71EBC-12C2-40EC-BE88-F4BDB00E19D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{587EAD77-2F44-4BEC-B9C8-21932D65E3BB}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{587EAD77-2F44-4BEC-B9C8-21932D65E3BB}"/>
   </bookViews>
   <sheets>
     <sheet name="locations" sheetId="1" r:id="rId1"/>
@@ -298,36 +298,18 @@
     <t>maxCapacityVolume</t>
   </si>
   <si>
-    <t>maxCapacityLoadingMeter</t>
-  </si>
-  <si>
     <t>fixedCosts</t>
   </si>
   <si>
     <t>costsPerStop</t>
   </si>
   <si>
-    <t>costsPerKm</t>
-  </si>
-  <si>
-    <t>sender</t>
-  </si>
-  <si>
-    <t>senderServiceTime</t>
-  </si>
-  <si>
     <t>earliestPickupTime</t>
   </si>
   <si>
     <t>latestPickupTime</t>
   </si>
   <si>
-    <t>recipient</t>
-  </si>
-  <si>
-    <t>recipientServiceTime</t>
-  </si>
-  <si>
     <t>earliestDeliveryTime</t>
   </si>
   <si>
@@ -340,13 +322,31 @@
     <t>volume</t>
   </si>
   <si>
-    <t>loadingMeter</t>
-  </si>
-  <si>
-    <t>opportunityCosts</t>
-  </si>
-  <si>
     <t>vehicleType</t>
+  </si>
+  <si>
+    <t>maxCapacityPallets</t>
+  </si>
+  <si>
+    <t>costsPerDistanceUnit</t>
+  </si>
+  <si>
+    <t>pallets</t>
+  </si>
+  <si>
+    <t>senderId</t>
+  </si>
+  <si>
+    <t>senderStopDuration</t>
+  </si>
+  <si>
+    <t>recipientId</t>
+  </si>
+  <si>
+    <t>recipientStopDuration</t>
+  </si>
+  <si>
+    <t>externalCosts</t>
   </si>
 </sst>
 </file>
@@ -466,10 +466,10 @@
     <tableColumn id="8" xr3:uid="{DC5204DA-1BF4-4CDA-85FF-B7DCC2231A64}" name="maxRouteDuration"/>
     <tableColumn id="9" xr3:uid="{19B092A0-9962-480C-96B0-CACA9580D574}" name="maxCapacityWeight"/>
     <tableColumn id="10" xr3:uid="{AA74CD60-DED2-45A1-868A-021B6851F60C}" name="maxCapacityVolume"/>
-    <tableColumn id="11" xr3:uid="{9FE5BD56-C85F-4992-8EF8-910D91C1BF09}" name="maxCapacityLoadingMeter"/>
+    <tableColumn id="11" xr3:uid="{9FE5BD56-C85F-4992-8EF8-910D91C1BF09}" name="maxCapacityPallets"/>
     <tableColumn id="12" xr3:uid="{9F79C081-094E-4141-8509-C20A3E1093E7}" name="fixedCosts"/>
     <tableColumn id="13" xr3:uid="{60FBCBBA-16BF-42F2-B05F-BE925BD3CF0C}" name="costsPerStop"/>
-    <tableColumn id="14" xr3:uid="{C5F8CA03-59DE-409C-8846-F6C20D1D4B02}" name="costsPerKm"/>
+    <tableColumn id="14" xr3:uid="{C5F8CA03-59DE-409C-8846-F6C20D1D4B02}" name="costsPerDistanceUnit"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -481,18 +481,18 @@
   <tableColumns count="15">
     <tableColumn id="15" xr3:uid="{22E5F1BB-BF8F-47E3-9397-38193BB14ED6}" name="id"/>
     <tableColumn id="1" xr3:uid="{20E874B6-4BDA-4535-9554-CD2F59B4669F}" name="name"/>
-    <tableColumn id="2" xr3:uid="{3C73E1FA-4029-4801-8923-510F59939BFC}" name="sender"/>
-    <tableColumn id="3" xr3:uid="{AD0AA060-A67E-46C2-A728-8F0314AC15AA}" name="senderServiceTime"/>
+    <tableColumn id="2" xr3:uid="{3C73E1FA-4029-4801-8923-510F59939BFC}" name="senderId"/>
+    <tableColumn id="3" xr3:uid="{AD0AA060-A67E-46C2-A728-8F0314AC15AA}" name="senderStopDuration"/>
     <tableColumn id="4" xr3:uid="{D455F003-E8C4-4A8A-9553-7A1ED85E7E6C}" name="earliestPickupTime" dataDxfId="3"/>
     <tableColumn id="5" xr3:uid="{857460B7-8062-4823-8893-4B40F8EA5209}" name="latestPickupTime" dataDxfId="2"/>
-    <tableColumn id="6" xr3:uid="{D6117AC1-607D-4A90-A484-CEAB2CAE6C82}" name="recipient"/>
-    <tableColumn id="7" xr3:uid="{B25B4C50-7249-42D2-88DF-9AD1163046C1}" name="recipientServiceTime"/>
+    <tableColumn id="6" xr3:uid="{D6117AC1-607D-4A90-A484-CEAB2CAE6C82}" name="recipientId"/>
+    <tableColumn id="7" xr3:uid="{B25B4C50-7249-42D2-88DF-9AD1163046C1}" name="recipientStopDuration"/>
     <tableColumn id="8" xr3:uid="{AFD7CC2B-93BD-49DB-8710-5B56B9B52B62}" name="earliestDeliveryTime" dataDxfId="1"/>
     <tableColumn id="9" xr3:uid="{23F9D82A-4E62-4A5C-B35A-B59E7CFF3C08}" name="latestDeliveryTime" dataDxfId="0"/>
     <tableColumn id="10" xr3:uid="{3BAD0BAC-18C8-4851-9E01-7F849FA2694C}" name="weight"/>
     <tableColumn id="11" xr3:uid="{05F566F6-DF8E-4B7E-BA51-446D41D5C4FC}" name="volume"/>
-    <tableColumn id="12" xr3:uid="{A5F00BBE-1A3B-44B8-9198-32777E2401F2}" name="loadingMeter"/>
-    <tableColumn id="13" xr3:uid="{1CA55688-E807-4E28-8406-4938DAE096EF}" name="opportunityCosts"/>
+    <tableColumn id="12" xr3:uid="{A5F00BBE-1A3B-44B8-9198-32777E2401F2}" name="pallets"/>
+    <tableColumn id="13" xr3:uid="{1CA55688-E807-4E28-8406-4938DAE096EF}" name="externalCosts"/>
     <tableColumn id="14" xr3:uid="{1E6209D7-1746-4C92-82A9-09EA27209294}" name="vehicleType"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1944,8 +1944,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4019B290-8629-4881-9813-BBEC7A991315}">
   <dimension ref="A1:O2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:O2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="U25" sqref="U25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1985,16 +1985,16 @@
         <v>85</v>
       </c>
       <c r="L1" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="N1" s="1" t="s">
-        <v>88</v>
-      </c>
       <c r="O1" s="1" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
@@ -2056,8 +2056,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3A27FC7-E825-4D76-8326-B8690ED964DE}">
   <dimension ref="A1:O22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I30" sqref="I30"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N1" sqref="N1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2080,43 +2080,43 @@
         <v>70</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="L1" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="M1" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="O1" s="2" t="s">
         <v>94</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
